--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -1,73 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2BB1C4B4DDEADC206C6145314B1510344D078CA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{196B30C3-5A42-4F84-A5F5-2594B629DDAA}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-180" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Conduit Name</t>
-  </si>
-  <si>
-    <t>Cable Pull Numbers</t>
-  </si>
-  <si>
-    <t>conduit1</t>
-  </si>
-  <si>
-    <t>3, 10, 15, 18, 5, 6, 7</t>
-  </si>
-  <si>
-    <t>conduit2</t>
-  </si>
-  <si>
-    <t>8, 9, 11, 12, 13, 14, 4, 1, 2, 16</t>
-  </si>
-  <si>
-    <t>conduit3</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>conduit4</t>
-  </si>
-  <si>
-    <t>3, 18, 1, 2, 16, 17</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,22 +46,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,58 +411,1210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Conduit Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Stationing Start</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Stationing End</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cable Pull Numbers</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cable Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Express</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Diameter</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Cross Sectional Area</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>conduit1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>conduit2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3C#6</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>conduit3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>conduit4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -483,12 +483,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>conduit1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
@@ -524,12 +524,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>conduit1</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -561,12 +561,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>conduit1</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -598,12 +598,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>conduit1</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -635,12 +635,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>conduit1</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -672,12 +672,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conduit1</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -709,12 +709,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conduit1</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -746,12 +746,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>conduit2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
@@ -787,12 +787,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conduit2</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -824,12 +824,12 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>conduit2</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -861,12 +861,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>conduit2</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -898,12 +898,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>conduit2</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -935,12 +935,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>conduit2</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -972,12 +972,12 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>conduit2</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -1009,12 +1009,12 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>conduit2</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -1046,12 +1046,12 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>conduit2</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -1083,12 +1083,12 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>conduit3</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
@@ -1124,12 +1124,12 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>conduit3</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -1161,12 +1161,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>conduit3</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -1198,12 +1198,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>conduit3</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -1235,12 +1235,12 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>conduit3</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>553+00</t>
@@ -1272,12 +1272,12 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>conduit4</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
@@ -1313,12 +1313,12 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>conduit4</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>554+90</t>
@@ -1350,12 +1350,12 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>conduit4</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>554+90</t>
@@ -1387,12 +1387,12 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>conduit4</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>554+90</t>
@@ -1424,12 +1424,12 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>conduit4</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>554+90</t>
@@ -1461,12 +1461,12 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>conduit4</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>554+90</t>
@@ -1498,12 +1498,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>conduit4</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>554+90</t>
@@ -1535,12 +1535,12 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>conduit4</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>554+90</t>
@@ -1572,12 +1572,12 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>conduit4</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>554+90</t>
@@ -1610,10 +1610,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="B9:B17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -46,11 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -488,7 +485,7 @@
           <t>conduit1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
@@ -524,17 +521,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>conduit1</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>10</t>
@@ -561,17 +547,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>conduit1</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>15</t>
@@ -598,17 +573,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>conduit1</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>18</t>
@@ -635,17 +599,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>conduit1</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>21</t>
@@ -672,17 +625,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>conduit1</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>5</t>
@@ -709,17 +651,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>conduit1</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>6</t>
@@ -751,7 +682,7 @@
           <t>conduit2</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
@@ -787,17 +718,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>conduit2</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>8</t>
@@ -824,17 +744,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>conduit2</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>9</t>
@@ -861,17 +770,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>conduit2</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>11</t>
@@ -898,17 +796,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>conduit2</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>12</t>
@@ -935,17 +822,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>conduit2</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>13</t>
@@ -972,17 +848,6 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>conduit2</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>14</t>
@@ -1009,17 +874,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>conduit2</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>4</t>
@@ -1046,17 +900,6 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>conduit2</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>1</t>
@@ -1088,7 +931,7 @@
           <t>conduit3</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
@@ -1124,17 +967,6 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>conduit3</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>16</t>
@@ -1161,17 +993,6 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>conduit3</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>17</t>
@@ -1198,17 +1019,6 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>conduit3</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>19</t>
@@ -1235,17 +1045,6 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>conduit3</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>20</t>
@@ -1277,7 +1076,7 @@
           <t>conduit4</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
@@ -1313,17 +1112,6 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>conduit4</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>18</t>
@@ -1350,17 +1138,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>conduit4</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>21</t>
@@ -1387,17 +1164,6 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>conduit4</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>1</t>
@@ -1424,17 +1190,6 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>conduit4</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>2</t>
@@ -1461,17 +1216,6 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>conduit4</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>16</t>
@@ -1498,17 +1242,6 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>conduit4</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>17</t>
@@ -1535,17 +1268,6 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>conduit4</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>19</t>
@@ -1572,17 +1294,6 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>conduit4</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>20</t>
@@ -1609,11 +1320,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="C2:C8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -46,8 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -480,17 +483,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>conduit1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
@@ -677,17 +680,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>conduit2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
@@ -926,17 +929,17 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>conduit3</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
@@ -1071,17 +1074,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>conduit4</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>554+90</t>
         </is>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,84 +428,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Conduit Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Conduit</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Stationing Start</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Stationing End</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cable Pull Numbers</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pull #</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Cable Size</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Diameter</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Weight</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Cross Sectional Area</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Free Air Space</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>conduit1</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D2" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -513,21 +503,15 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>1.485</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.73</v>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>60.42%</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D3" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -539,21 +523,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1.485</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.73</v>
-      </c>
     </row>
     <row r="4">
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D4" s="2" t="n">
+        <v>15</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -565,21 +538,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1.485</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.73</v>
-      </c>
     </row>
     <row r="5">
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="D5" s="2" t="n">
+        <v>18</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -591,21 +553,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>1.485</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.73</v>
-      </c>
     </row>
     <row r="6">
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="D6" s="2" t="n">
+        <v>21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -617,21 +568,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>1.485</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.73</v>
-      </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D7" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -643,21 +583,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.27</v>
-      </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D8" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -669,36 +598,25 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.27</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>conduit2</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 2</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D9" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -710,21 +628,15 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.27</v>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>60.92%</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D10" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -736,21 +648,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.27</v>
-      </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="D11" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -762,21 +663,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.27</v>
-      </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D12" s="2" t="n">
+        <v>11</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -788,21 +678,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.27</v>
-      </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="D13" s="2" t="n">
+        <v>12</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -814,21 +693,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.27</v>
-      </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D14" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -840,21 +708,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.27</v>
-      </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="D15" s="2" t="n">
+        <v>14</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -866,21 +723,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.27</v>
-      </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D16" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -892,21 +738,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.08</v>
-      </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -918,36 +753,25 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>conduit3</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 3</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D18" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -959,21 +783,15 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.77</v>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>86.38%</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="D19" s="2" t="n">
+        <v>16</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -985,21 +803,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="D20" s="2" t="n">
+        <v>17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1011,21 +818,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="D21" s="2" t="n">
+        <v>19</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1037,21 +833,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="D22" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1063,36 +848,25 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>conduit4</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 4</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>554+90</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D23" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1104,21 +878,15 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>1.485</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.73</v>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>65.3%</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="D24" s="2" t="n">
+        <v>18</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1130,21 +898,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>1.485</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.73</v>
-      </c>
     </row>
     <row r="25">
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="D25" s="2" t="n">
+        <v>21</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1156,21 +913,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>1.485</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.73</v>
-      </c>
     </row>
     <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D26" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1182,21 +928,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="27">
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D27" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1208,21 +943,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="D28" s="2" t="n">
+        <v>16</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1234,21 +958,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="D29" s="2" t="n">
+        <v>17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1260,21 +973,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="D30" s="2" t="n">
+        <v>19</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1286,21 +988,10 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.77</v>
-      </c>
     </row>
     <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="D31" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1312,30 +1003,25 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.77</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="B18:B22"/>
+    <mergeCell ref="G18:G22"/>
     <mergeCell ref="C9:C17"/>
+    <mergeCell ref="A9:A17"/>
     <mergeCell ref="B9:B17"/>
-    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="G9:G17"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="C23:C31"/>
+    <mergeCell ref="G23:G31"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="C2:C8"/>
+    <mergeCell ref="G2:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -49,9 +49,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -471,7 +474,663 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CABLE 2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>61.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3C#6</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CABLE 1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 2</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>94.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 3</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>62.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 4</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>75.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 5</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CABLE 2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>74.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CABLE 1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 6</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>76.87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -470,7 +470,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Free Air Space</t>
+          <t>Conduit Fill</t>
         </is>
       </c>
     </row>
@@ -491,111 +491,81 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CABLE 2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>EXPRESS</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>61.66%</t>
+          <t>28.86%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
+          <t>12C#14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="D4" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
+          <t>3C#6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3C#6</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
+          <t>7C#14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="2" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CABLE 1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
+          <t>7C#14</t>
         </is>
       </c>
     </row>
@@ -616,520 +586,346 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94.55%</t>
+          <t>37.95%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
+          <t>7C#12</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 3</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D11" s="2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>62.05%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="2" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
+          <t>12C#14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="2" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
+          <t>12C#14</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>12C#14</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 3</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>LOCAL</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>24.37%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>12C#14</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 4</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D18" s="2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>75.63%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="D19" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
+          <t>7C#14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" s="2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
+          <t>7C#14</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" s="2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="D22" s="2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>7C#14</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
     </row>
     <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 4</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
       <c r="D23" s="2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>11.57%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="D24" s="2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>7C#14</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="D25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 5</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>LOCAL</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 5</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>CABLE 2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>74.54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>23.13%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" s="2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CABLE 1</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
+          <t>7C#12</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="D29" s="2" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>7C#14</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 6</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D30" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>76.87%</t>
+          <t>7C#14</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="D31" s="2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
+          <t>7C#14</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C30:C35"/>
+  <mergeCells count="25">
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B9:B15"/>
     <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="C2:C8"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="G18:G24"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="G11:G17"/>
-    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A26:A31"/>
     <mergeCell ref="G2:G8"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="F16:F22"/>
     <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="F23:F25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>28.86%</t>
+          <t>31.65%</t>
         </is>
       </c>
     </row>
@@ -551,72 +551,72 @@
     </row>
     <row r="7">
       <c r="D7" s="2" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>CABLE 1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Conduit 2</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="D10" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CABLE 2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>37.95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7C#12</t>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35.58%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
     </row>
     <row r="12">
       <c r="D12" s="2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -636,72 +636,72 @@
     </row>
     <row r="13">
       <c r="D13" s="2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12C#14</t>
+          <t>7C#12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 3</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>37.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>12C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 3</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>24.37%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
     </row>
     <row r="18">
       <c r="D18" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -721,27 +721,27 @@
     </row>
     <row r="19">
       <c r="D19" s="2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>12C#14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" s="2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>12C#14</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="22">
       <c r="D22" s="2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -760,43 +760,18 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 4</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D23" s="2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>11.57%</t>
+          <t>7C#14</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -805,63 +780,63 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 4</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
       <c r="D25" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>14.36%</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 5</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
       <c r="D26" s="2" t="n">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>23.13%</t>
+          <t>CABLE 1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" s="2" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7C#12</t>
+          <t>7C#14</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -870,30 +845,95 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 5</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
       <c r="D29" s="2" t="n">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>CABLE 2</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>34.24%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="D30" s="2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>7C#12</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="D31" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>7C#14</t>
         </is>
@@ -901,31 +941,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="F15:F24"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="C15:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="G15:G24"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,498 +475,41 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Conduit 1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>554+90</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
+          <t>CABLE 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>EXPRESS</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>31.65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="D4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3C#6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CABLE 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 2</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CABLE 2</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>35.58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 3</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>37.84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 4</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>14.36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>CABLE 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 5</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CABLE 2</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>34.24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>7C#14</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.18%</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="F15:F24"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="C15:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B35"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -487,29 +487,816 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>35.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 3</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3C#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 4</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Conduit 5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Conduit 6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Conduit 7</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Conduit 8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 9</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>35.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Conduit1 0</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>35.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Conduit1 1</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>35.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Conduit1 2</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>32.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Conduit1 3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Conduit1 4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>554+90</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CABLE 1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>EXPRESS</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>11.18%</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Conduit1 5</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Conduit1 6</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Conduit1 7</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Conduit1 8</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>32.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Conduit1 9</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10.91%</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +491,9 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>7C#12</t>
         </is>
@@ -508,16 +508,22 @@
           <t>39.84%</t>
         </is>
       </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="D3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>3C#6</t>
         </is>
       </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -536,9 +542,9 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>12C#14</t>
         </is>
@@ -553,16 +559,22 @@
           <t>35.84%</t>
         </is>
       </c>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>12C#14</t>
         </is>
       </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -581,9 +593,9 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>12C#14</t>
         </is>
@@ -598,44 +610,110 @@
           <t>39.74%</t>
         </is>
       </c>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="D7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>7C#14</t>
         </is>
       </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="D8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>7C#14</t>
         </is>
       </c>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 4</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2C#4</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29.06%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2C#4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="20">
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G8"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>7C#12</t>
+          <t>7C#14</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -505,215 +505,67 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>39.84%</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
+          <t>10.91%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
       <c r="D3" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>3C#6</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>21.82%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 2</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>35.84%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="D5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 3</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>39.74%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
           <t>7C#14</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 4</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2C#4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>29.06%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2C#4</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B8"/>
+  <mergeCells count="5">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,10 +508,11 @@
           <t>39.84%</t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
     </row>
     <row r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n">
         <v>4</v>
       </c>
@@ -522,8 +523,6 @@
       </c>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -559,10 +558,11 @@
           <t>35.84%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
     </row>
     <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n">
         <v>6</v>
       </c>
@@ -573,8 +573,6 @@
       </c>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -610,10 +608,11 @@
           <t>39.74%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
     </row>
     <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -624,10 +623,11 @@
       </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
     </row>
     <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="n">
         <v>2</v>
       </c>
@@ -638,8 +638,6 @@
       </c>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -675,10 +673,11 @@
           <t>29.06%</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
     </row>
     <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
       <c r="D10" s="2" t="n">
         <v>9</v>
       </c>
@@ -689,8 +688,6 @@
       </c>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,10 @@
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -470,7 +473,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Minimum Conduit Size</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Conduit Fill</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Upsized Conduit</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Upsized Conduit Fill</t>
         </is>
       </c>
     </row>
@@ -503,9 +521,20 @@
           <t>EXPRESS</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>39.84%</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>33.95%</t>
         </is>
       </c>
     </row>
@@ -523,6 +552,9 @@
       </c>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -553,9 +585,20 @@
           <t>EXPRESS</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>35.84%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30.54%</t>
         </is>
       </c>
     </row>
@@ -573,6 +616,9 @@
       </c>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -603,9 +649,20 @@
           <t>EXPRESS</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>39.74%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33.87%</t>
         </is>
       </c>
     </row>
@@ -623,6 +680,9 @@
       </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -638,6 +698,9 @@
       </c>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -668,9 +731,20 @@
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>29.06%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24.76%</t>
         </is>
       </c>
     </row>
@@ -688,13 +762,21 @@
       </c>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="32">
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C8"/>
@@ -703,14 +785,21 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J6:J8"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>39.84%</t>
+          <t>34.04%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>33.95%</t>
+          <t>26.06%</t>
         </is>
       </c>
     </row>
@@ -543,11 +543,11 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>3C#6</t>
+          <t>7C#14</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -557,249 +557,33 @@
       <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 2</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>35.84%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>30.54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 3</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>39.74%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>33.87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
           <t>7C#14</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 4</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2C#4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>29.06%</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>24.76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2C#4</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
+  <mergeCells count="8">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -1,37 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\OneDrive - Iovino Enterprises, LLC\Documents 1\Code\Git Files\Cable-Run-Optimizer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1DF22-6616-44F0-82E3-3142C8A55364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1365" yWindow="1065" windowWidth="19140" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+  <si>
+    <t>Conduit</t>
+  </si>
+  <si>
+    <t>Stationing Start</t>
+  </si>
+  <si>
+    <t>Stationing End</t>
+  </si>
+  <si>
+    <t>Pull #</t>
+  </si>
+  <si>
+    <t>Cable Size</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Minimum Conduit Size</t>
+  </si>
+  <si>
+    <t>Conduit Fill</t>
+  </si>
+  <si>
+    <t>Upsized Conduit</t>
+  </si>
+  <si>
+    <t>Upsized Conduit Fill</t>
+  </si>
+  <si>
+    <t>Conduit 1</t>
+  </si>
+  <si>
+    <t>543+00</t>
+  </si>
+  <si>
+    <t>553+00</t>
+  </si>
+  <si>
+    <t>7C#12</t>
+  </si>
+  <si>
+    <t>EXPRESS</t>
+  </si>
+  <si>
+    <t>39.19%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>12C#14</t>
+  </si>
+  <si>
+    <t>Conduit 2</t>
+  </si>
+  <si>
+    <t>37.60%</t>
+  </si>
+  <si>
+    <t>28.79%</t>
+  </si>
+  <si>
+    <t>3C#6</t>
+  </si>
+  <si>
+    <t>2C#4</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>29.06%</t>
+  </si>
+  <si>
+    <t>21.35%</t>
+  </si>
+  <si>
+    <t>Conduit 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,85 +141,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,175 +451,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Conduit</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Stationing Start</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stationing End</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pull #</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cable Size</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Express</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Minimum Conduit Size</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Conduit Fill</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Upsized Conduit</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Upsized Conduit Fill</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 1</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3">
         <v>3.5</v>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>34.04%</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>26.06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="24">
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -1,129 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\OneDrive - Iovino Enterprises, LLC\Documents 1\Code\Git Files\Cable-Run-Optimizer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1DF22-6616-44F0-82E3-3142C8A55364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1065" windowWidth="19140" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
-  <si>
-    <t>Conduit</t>
-  </si>
-  <si>
-    <t>Stationing Start</t>
-  </si>
-  <si>
-    <t>Stationing End</t>
-  </si>
-  <si>
-    <t>Pull #</t>
-  </si>
-  <si>
-    <t>Cable Size</t>
-  </si>
-  <si>
-    <t>Express</t>
-  </si>
-  <si>
-    <t>Minimum Conduit Size</t>
-  </si>
-  <si>
-    <t>Conduit Fill</t>
-  </si>
-  <si>
-    <t>Upsized Conduit</t>
-  </si>
-  <si>
-    <t>Upsized Conduit Fill</t>
-  </si>
-  <si>
-    <t>Conduit 1</t>
-  </si>
-  <si>
-    <t>543+00</t>
-  </si>
-  <si>
-    <t>553+00</t>
-  </si>
-  <si>
-    <t>7C#12</t>
-  </si>
-  <si>
-    <t>EXPRESS</t>
-  </si>
-  <si>
-    <t>39.19%</t>
-  </si>
-  <si>
-    <t>30.0%</t>
-  </si>
-  <si>
-    <t>12C#14</t>
-  </si>
-  <si>
-    <t>Conduit 2</t>
-  </si>
-  <si>
-    <t>37.60%</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>3C#6</t>
-  </si>
-  <si>
-    <t>2C#4</t>
-  </si>
-  <si>
-    <t>LOCAL</t>
-  </si>
-  <si>
-    <t>29.06%</t>
-  </si>
-  <si>
-    <t>21.35%</t>
-  </si>
-  <si>
-    <t>Conduit 3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,29 +49,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,242 +415,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Conduit</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Stationing Start</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stationing End</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pull #</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cable Size</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Express</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Minimum Conduit Size</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Conduit Fill</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Upsized Conduit</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Upsized Conduit Fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>39.19%</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 2</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37.60%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3C#6</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 4</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2C#4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29.06%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2C#4</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I2:I4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="F2:F4"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="C5:C6"/>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>39.19%</t>
+          <t>31.17%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>23.86%</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -557,79 +557,79 @@
       <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>12C#14</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>39.5%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30.24%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 2</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
           <t>12C#14</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>37.60%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>28.79%</t>
-        </is>
-      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3C#6</t>
+          <t>12C#14</t>
         </is>
       </c>
       <c r="F6" s="2" t="n"/>
@@ -641,7 +641,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Conduit 4</t>
+          <t>Conduit 3</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2C#4</t>
+          <t>12C#14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>LOCAL</t>
+          <t>EXPRESS</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
@@ -672,7 +672,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29.06%</t>
+          <t>33.26%</t>
         </is>
       </c>
       <c r="I7" s="2" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21.35%</t>
+          <t>24.44%</t>
         </is>
       </c>
     </row>
@@ -689,11 +689,11 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2C#4</t>
+          <t>3C#6</t>
         </is>
       </c>
       <c r="F8" s="2" t="n"/>
@@ -702,32 +702,736 @@
       <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 4</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>36.0%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 5</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36.0%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 6</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39.5%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 7</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>39.5%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 8</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>32.07%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 9</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>24.55%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>15.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 10</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>36.0%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>27.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 11</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>32.07%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>24.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 12</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>24.55%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>15.71%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
+  <mergeCells count="80">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="J16:J18"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B4:B6"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F19:F22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,20 +500,20 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>500+00</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>7C#12</t>
+          <t>3C#6</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>31.17%</t>
+          <t>36.97%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>23.86%</t>
+          <t>28.31%</t>
         </is>
       </c>
     </row>
@@ -543,11 +543,11 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>12C#14</t>
+          <t>2C#6</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -557,61 +557,33 @@
       <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 2</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>39.5%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>30.24%</t>
-        </is>
-      </c>
+          <t>2C#6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12C#14</t>
+          <t>2C#6</t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
@@ -621,79 +593,79 @@
       <c r="J5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 2</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>500+00</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
       <c r="D6" s="2" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38.88%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27.00%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 3</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>33.26%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>24.44%</t>
-        </is>
-      </c>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3C#6</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F8" s="2" t="n"/>
@@ -705,7 +677,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Conduit 4</t>
+          <t>Conduit 3</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -719,7 +691,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -728,7 +700,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>LOCAL</t>
+          <t>EXPRESS</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
@@ -736,7 +708,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>39.74%</t>
         </is>
       </c>
       <c r="I9" s="2" t="n">
@@ -744,7 +716,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27.57%</t>
+          <t>30.42%</t>
         </is>
       </c>
     </row>
@@ -753,11 +725,11 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="n"/>
       <c r="D10" s="2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7C#12</t>
+          <t>12C#14</t>
         </is>
       </c>
       <c r="F10" s="2" t="n"/>
@@ -767,121 +739,93 @@
       <c r="J10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 5</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2C#6</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 4</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n">
+      <c r="D12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>36.0%</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39.5%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>27.57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30.24%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 6</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
       <c r="D13" s="2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>12C#14</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>39.5%</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>30.24%</t>
-        </is>
-      </c>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="n"/>
       <c r="D14" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -895,79 +839,79 @@
       <c r="J14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 5</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
       <c r="D15" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>12C#14</t>
         </is>
       </c>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>35.71%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>27.34%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 7</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>39.5%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>30.24%</t>
-        </is>
-      </c>
+          <t>3C#6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="n"/>
       <c r="D17" s="2" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12C#14</t>
+          <t>3C#6</t>
         </is>
       </c>
       <c r="F17" s="2" t="n"/>
@@ -977,79 +921,79 @@
       <c r="J17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 6</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
       <c r="D18" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12C#14</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
+          <t>2C#6</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>36.97%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>28.31%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 8</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
       <c r="D19" s="2" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>32.07%</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>24.55%</t>
-        </is>
-      </c>
+          <t>2C#6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="n"/>
       <c r="D20" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F20" s="2" t="n"/>
@@ -1063,11 +1007,11 @@
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="n"/>
       <c r="D21" s="2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F21" s="2" t="n"/>
@@ -1081,11 +1025,11 @@
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="n"/>
       <c r="D22" s="2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F22" s="2" t="n"/>
@@ -1097,187 +1041,187 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
+          <t>Conduit 7</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>36.0%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 8</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>36.0%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>27.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
           <t>Conduit 9</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>543+00</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="D27" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>24.55%</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>15.71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 10</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="n">
+      <c r="G27" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>36.0%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="n">
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>39.5%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>27.57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>7C#12</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 11</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>554+90</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>32.07%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>24.55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>30.24%</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="n"/>
       <c r="D28" s="2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>12C#14</t>
         </is>
       </c>
       <c r="F28" s="2" t="n"/>
@@ -1291,11 +1235,11 @@
       <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="n"/>
       <c r="D29" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>12C#14</t>
         </is>
       </c>
       <c r="F29" s="2" t="n"/>
@@ -1307,131 +1251,995 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
+          <t>Conduit 10</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>39.5%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>30.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>12C#14</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 11</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>32.07%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>24.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
           <t>Conduit 12</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>553+00</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="D37" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>31.43%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>21.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 13</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>554+90</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D39" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>3C#6</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>36.97%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>28.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>2C#6</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="2" t="n"/>
+      <c r="D41" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>2C#6</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>2C#6</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 14</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>38.88%</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>27.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 15</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>36.0%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>27.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="2" t="n"/>
+      <c r="D47" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>7C#12</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n"/>
+      <c r="G47" s="2" t="n"/>
+      <c r="H47" s="2" t="n"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 16</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>32.07%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>24.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
+      <c r="C49" s="2" t="n"/>
+      <c r="D49" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
+      <c r="H49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
+      <c r="C51" s="2" t="n"/>
+      <c r="D51" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 17</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>7C#14</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>24.55%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="n">
+      <c r="G52" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>15.71%</t>
-        </is>
-      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>31.43%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>21.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
+      <c r="C53" s="2" t="n"/>
+      <c r="D53" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 18</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>600+00</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>3C#6</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>36.97%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>28.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
+      <c r="C55" s="2" t="n"/>
+      <c r="D55" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>2C#6</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
+      <c r="H55" s="2" t="n"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
+      <c r="C56" s="2" t="n"/>
+      <c r="D56" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>2C#6</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="n"/>
+      <c r="G56" s="2" t="n"/>
+      <c r="H56" s="2" t="n"/>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>2C#6</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="n"/>
+      <c r="G57" s="2" t="n"/>
+      <c r="H57" s="2" t="n"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 19</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>554+90</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>600+00</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>38.88%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>27.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="2" t="n"/>
+      <c r="C59" s="2" t="n"/>
+      <c r="D59" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="n"/>
+      <c r="G59" s="2" t="n"/>
+      <c r="H59" s="2" t="n"/>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="2" t="n"/>
+      <c r="C60" s="2" t="n"/>
+      <c r="D60" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="n"/>
+      <c r="G60" s="2" t="n"/>
+      <c r="H60" s="2" t="n"/>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F19:F22"/>
+  <mergeCells count="152">
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="H54:H57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,41 +500,41 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>100+00</t>
+          <t>SWITCH-HTR-A</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>200+00</t>
+          <t>RELAY-RM-1</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>LOCAL</t>
+          <t>EXPRESS</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>32.73%</t>
+          <t>38.88%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>24.05%</t>
+          <t>27.00%</t>
         </is>
       </c>
     </row>
@@ -543,11 +543,11 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -561,11 +561,11 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -574,16 +574,1006 @@
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 2</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32.73%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 3</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38.88%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 4</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>32.73%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 5</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>38.88%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>27.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 6</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>32.73%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 7</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>38.88%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 8</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>32.73%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 9</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>38.88%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>27.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 10</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>32.73%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 11</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>38.88%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>27.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 12</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>32.73%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="2" t="n"/>
+      <c r="D37" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="96">
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="G8:G10"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="I17:I19"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="J2:J4"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -1,114 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2BB1C4B4DD3A5781A93D30B3585AF835685BFE37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="1575" windowWidth="20175" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>Conduit</t>
-  </si>
-  <si>
-    <t>Stationing Start</t>
-  </si>
-  <si>
-    <t>Stationing End</t>
-  </si>
-  <si>
-    <t>Pull #</t>
-  </si>
-  <si>
-    <t>Cable Size</t>
-  </si>
-  <si>
-    <t>Express</t>
-  </si>
-  <si>
-    <t>Minimum Conduit Size</t>
-  </si>
-  <si>
-    <t>Conduit Fill</t>
-  </si>
-  <si>
-    <t>Upsized Conduit</t>
-  </si>
-  <si>
-    <t>Upsized Conduit Fill</t>
-  </si>
-  <si>
-    <t>Conduit 1</t>
-  </si>
-  <si>
-    <t>SWITCH-HTR-A</t>
-  </si>
-  <si>
-    <t>RELAY-RM-1</t>
-  </si>
-  <si>
-    <t>STAR QUAD</t>
-  </si>
-  <si>
-    <t>EXPRESS</t>
-  </si>
-  <si>
-    <t>38.88%</t>
-  </si>
-  <si>
-    <t>27.00%</t>
-  </si>
-  <si>
-    <t>Conduit 2</t>
-  </si>
-  <si>
-    <t>7C#14</t>
-  </si>
-  <si>
-    <t>LOCAL</t>
-  </si>
-  <si>
-    <t>32.73%</t>
-  </si>
-  <si>
-    <t>24.05%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,29 +49,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,189 +415,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Conduit</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Stationing Start</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stationing End</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pull #</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cable Size</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Express</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Minimum Conduit Size</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Conduit Fill</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Upsized Conduit</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Upsized Conduit Fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>38.88%</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>27.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 2</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32.73%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="C5:C7"/>
@@ -629,12 +674,6 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -1,37 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2BB1C4B4DDFA5AE3C51E2DB3585AF835685BFE37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+  <si>
+    <t>Conduit</t>
+  </si>
+  <si>
+    <t>Stationing Start</t>
+  </si>
+  <si>
+    <t>Stationing End</t>
+  </si>
+  <si>
+    <t>Pull #</t>
+  </si>
+  <si>
+    <t>Cable Size</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Minimum Conduit Size</t>
+  </si>
+  <si>
+    <t>Conduit Fill</t>
+  </si>
+  <si>
+    <t>Upsized Conduit</t>
+  </si>
+  <si>
+    <t>Upsized Conduit Fill</t>
+  </si>
+  <si>
+    <t>Conduit 1</t>
+  </si>
+  <si>
+    <t>SWITCH-HTR-A</t>
+  </si>
+  <si>
+    <t>RELAY-RM-1</t>
+  </si>
+  <si>
+    <t>STAR QUAD</t>
+  </si>
+  <si>
+    <t>EXPRESS</t>
+  </si>
+  <si>
+    <t>38.88%</t>
+  </si>
+  <si>
+    <t>27.00%</t>
+  </si>
+  <si>
+    <t>Conduit 2</t>
+  </si>
+  <si>
+    <t>7C#14</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>32.73%</t>
+  </si>
+  <si>
+    <t>24.05%</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,85 +126,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,255 +436,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Conduit</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Stationing Start</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stationing End</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pull #</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cable Size</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Express</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Minimum Conduit Size</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Conduit Fill</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Upsized Conduit</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Upsized Conduit Fill</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 1</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>SWITCH-HTR-A</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>RELAY-RM-1</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>STAR QUAD</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3">
         <v>2.5</v>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>38.88%</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>27.00%</t>
-        </is>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>STAR QUAD</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>STAR QUAD</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 2</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>SWITCH-HTR-A</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>RELAY-RM-1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>32.73%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3">
         <v>3.5</v>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>24.05%</t>
-        </is>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="C5:C7"/>
@@ -674,6 +629,12 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -1,114 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2BB1C4B4DDFA5AE3C51E2DB3585AF835685BFE37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>Conduit</t>
-  </si>
-  <si>
-    <t>Stationing Start</t>
-  </si>
-  <si>
-    <t>Stationing End</t>
-  </si>
-  <si>
-    <t>Pull #</t>
-  </si>
-  <si>
-    <t>Cable Size</t>
-  </si>
-  <si>
-    <t>Express</t>
-  </si>
-  <si>
-    <t>Minimum Conduit Size</t>
-  </si>
-  <si>
-    <t>Conduit Fill</t>
-  </si>
-  <si>
-    <t>Upsized Conduit</t>
-  </si>
-  <si>
-    <t>Upsized Conduit Fill</t>
-  </si>
-  <si>
-    <t>Conduit 1</t>
-  </si>
-  <si>
-    <t>SWITCH-HTR-A</t>
-  </si>
-  <si>
-    <t>RELAY-RM-1</t>
-  </si>
-  <si>
-    <t>STAR QUAD</t>
-  </si>
-  <si>
-    <t>EXPRESS</t>
-  </si>
-  <si>
-    <t>38.88%</t>
-  </si>
-  <si>
-    <t>27.00%</t>
-  </si>
-  <si>
-    <t>Conduit 2</t>
-  </si>
-  <si>
-    <t>7C#14</t>
-  </si>
-  <si>
-    <t>LOCAL</t>
-  </si>
-  <si>
-    <t>32.73%</t>
-  </si>
-  <si>
-    <t>24.05%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,29 +49,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,189 +415,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bundle</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Stationing Start</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stationing End</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pull #</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cable Size</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Express</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Bundle Diameter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Bundle Weight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>2580</v>
+      </c>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Conduit 2</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>2.973</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1485</v>
+      </c>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="C5:C7"/>
@@ -629,12 +646,6 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,14 +428,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="24" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,24 +466,24 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Express</t>
+          <t>Express/Local</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Bundle Diameter</t>
+          <t>Bundle Diameter (in)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Bundle Weight</t>
+          <t>Bundle Weight (lb/mft)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Conduit 1</t>
+          <t>Bundle 1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -497,11 +497,11 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>STAR QUAD</t>
+          <t>7C#14</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.7</v>
+        <v>30.71099999999998</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>2580</v>
+        <v>19.855</v>
       </c>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
@@ -523,11 +523,11 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>STAR QUAD</t>
+          <t>7C#14</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -541,11 +541,11 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>STAR QUAD</t>
+          <t>7C#14</t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -555,40 +555,20 @@
       <c r="J4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 2</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>SWITCH-HTR-A</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>RELAY-RM-1</t>
-        </is>
-      </c>
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
           <t>7C#14</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>2.973</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1485</v>
-      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
     </row>
@@ -597,7 +577,7 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -615,7 +595,7 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -628,24 +608,638 @@
       <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Bundle 2</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>6.300000000000001</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="2" t="n"/>
+      <c r="D37" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="2" t="n"/>
+      <c r="C39" s="2" t="n"/>
+      <c r="D39" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>STAR QUAD</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="H34:H40"/>
+    <mergeCell ref="I34:I40"/>
+    <mergeCell ref="J34:J40"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="C2:C33"/>
+    <mergeCell ref="G2:G33"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="J2:J33"/>
+    <mergeCell ref="H2:H33"/>
+    <mergeCell ref="I2:I33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="G34:G40"/>
+    <mergeCell ref="F34:F40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30.71099999999998</v>
+        <v>29.81099999999998</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>19.855</v>
@@ -1059,9 +1059,21 @@
       <c r="J32" s="2" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Bundle 2</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>SWITCH-HTR-A</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>RELAY-RM-1</t>
+        </is>
+      </c>
       <c r="D33" s="2" t="n">
         <v>20</v>
       </c>
@@ -1070,28 +1082,24 @@
           <t>STAR QUAD</t>
         </is>
       </c>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>7.200000000000001</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>6.88</v>
+      </c>
       <c r="I33" s="2" t="n"/>
       <c r="J33" s="2" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>Bundle 2</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>SWITCH-HTR-A</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>RELAY-RM-1</t>
-        </is>
-      </c>
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="2" t="n"/>
       <c r="D34" s="2" t="n">
         <v>22</v>
       </c>
@@ -1100,17 +1108,9 @@
           <t>STAR QUAD</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>6.300000000000001</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
       <c r="I34" s="2" t="n"/>
       <c r="J34" s="2" t="n"/>
     </row>
@@ -1224,22 +1224,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="H34:H40"/>
-    <mergeCell ref="I34:I40"/>
-    <mergeCell ref="J34:J40"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="C2:C33"/>
-    <mergeCell ref="G2:G33"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="J2:J33"/>
-    <mergeCell ref="H2:H33"/>
-    <mergeCell ref="I2:I33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="G34:G40"/>
-    <mergeCell ref="F34:F40"/>
+    <mergeCell ref="H33:H40"/>
+    <mergeCell ref="I33:I40"/>
+    <mergeCell ref="H2:H32"/>
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="J33:J40"/>
+    <mergeCell ref="F2:F32"/>
+    <mergeCell ref="J2:J32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="F33:F40"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="G33:G40"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="I2:I32"/>
+    <mergeCell ref="C2:C32"/>
+    <mergeCell ref="G2:G32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>1000+00</t>
+          <t>543+00</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>1500+00</t>
+          <t>553+00</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -501,7 +501,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>CABLE 1</t>
+          <t>3C#9</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -510,13 +510,665 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1</v>
+        <v>5.885</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>14.22</v>
+      </c>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Bundle 2</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>543+00</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>553+00</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>2.685</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>3C#9</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H2:H32"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="F2:F32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="J2:J32"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="I2:I32"/>
+    <mergeCell ref="C2:C32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="G2:G32"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>543+00</t>
+          <t>200+00</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>553+00</t>
+          <t>300+00</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -501,7 +501,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>3C#9</t>
+          <t>1C#4</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.885</v>
+        <v>3.485</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>14.22</v>
+        <v>2.683</v>
       </c>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
@@ -527,7 +527,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>3C#9</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -541,11 +541,11 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3C#9</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -559,11 +559,11 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3C#9</t>
+          <t>7C#10</t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
@@ -573,20 +573,40 @@
       <c r="J5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Bundle 2</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>300+00</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>400+00</t>
+        </is>
+      </c>
       <c r="D6" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
+          <t>1C#4</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1.94</v>
+      </c>
       <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
     </row>
@@ -595,11 +615,11 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3C#9</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F7" s="2" t="n"/>
@@ -613,11 +633,11 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3C#9</t>
+          <t>STAR QUAD</t>
         </is>
       </c>
       <c r="F8" s="2" t="n"/>
@@ -626,548 +646,24 @@
       <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Bundle 2</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>543+00</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>553+00</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>2.685</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
-      <c r="C35" s="2" t="n"/>
-      <c r="D35" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
-      <c r="C36" s="2" t="n"/>
-      <c r="D36" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>3C#9</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H2:H32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="A2:A32"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="F2:F32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="J2:J32"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="I2:I32"/>
-    <mergeCell ref="C2:C32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="G2:G32"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -433,10 +433,10 @@
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -468,12 +468,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Express</t>
+          <t>Express/Local</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Minimum Conduit Size</t>
+          <t>Minimum Conduit Size (in)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Upsized Conduit</t>
+          <t>Upsized Conduit (in)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,12 +500,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SWITCH-HTR-A</t>
+          <t>100+00</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>RELAY-RM-1</t>
+          <t>200+00</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -513,7 +513,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>STAR QUAD</t>
+          <t>2C#2</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -522,159 +522,23 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>38.6%</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>38.88%</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>27.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>STAR QUAD</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>STAR QUAD</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Conduit 2</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>SWITCH-HTR-A</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>RELAY-RM-1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>32.73%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>24.05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
+          <t>24.70%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="B5:B7"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,36 +509,64 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>2C#2</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>28.07%</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>20.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>2C#2</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>38.6%</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>24.70%</t>
-        </is>
-      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -428,22 +428,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="24" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Conduit</t>
+          <t>Bundle</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -473,29 +471,19 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Minimum Conduit Size (in)</t>
+          <t>Bundle Diameter (in)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Conduit Fill</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Upsized Conduit (in)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Upsized Conduit Fill</t>
+          <t>Bundle Weight (lb/mft)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Conduit 1</t>
+          <t>Bundle 1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -509,11 +497,11 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2C#2</t>
+          <t>7C#14</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -522,32 +510,24 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>28.07%</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>20.62%</t>
-        </is>
-      </c>
+        <v>4.58</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>2C#2</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>2C#2</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -510,43 +510,13 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.58</v>
+        <v>2.27</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>2C#2</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
+        <v>0.89</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.27</v>
+        <v>1.96</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>0.89</v>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,22 +501,52 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>EXPRESS</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
           <t>2C#2</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>EXPRESS</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0.89</v>
-      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.99</v>
+        <v>2.99</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1.39</v>
+        <v>5.25</v>
       </c>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
@@ -527,7 +527,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>2C#2</t>
+          <t>7C#14</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -536,16 +536,142 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7C#14</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2C#2</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2C#2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="J2:J10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="G2:G10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.99</v>
+        <v>0.99</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>5.25</v>
+        <v>2.27</v>
       </c>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
@@ -523,11 +523,11 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>2C#2</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -541,11 +541,11 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7C#14</t>
+          <t>2C#2</t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -554,124 +554,16 @@
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7C#14</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2C#2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2C#2</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I2:I10"/>
-    <mergeCell ref="F2:F10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="H2:H10"/>
-    <mergeCell ref="J2:J10"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -523,7 +523,7 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
         <v>0.99</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>2.27</v>
+        <v>1.39</v>
       </c>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
@@ -536,34 +536,16 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2C#2</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
         <v>0.99</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1.39</v>
+        <v>2.27</v>
       </c>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
@@ -536,16 +536,34 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2C#2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
         <v>0.99</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>2.27</v>
+        <v>3.17</v>
       </c>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
@@ -554,16 +554,34 @@
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2C#2</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
